--- a/data/trans_orig/barthel_r-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/barthel_r-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D3E75C4-FDAB-4B87-BD80-2C3DA11939D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29573CC5-F451-455A-AB62-3453B3FFCF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AEC26148-2ECA-4112-9E27-26591DD53563}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE859F9F-512B-4D4D-838F-1BE668915C40}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="566">
   <si>
     <t>Barthel recodificado en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>63,83%</t>
   </si>
   <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
   </si>
   <si>
     <t>55,31%</t>
   </si>
   <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
   </si>
   <si>
     <t>59,05%</t>
   </si>
   <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
   </si>
   <si>
     <t>100 independencia</t>
@@ -128,25 +128,25 @@
     <t>28,1%</t>
   </si>
   <si>
-    <t>33,53%</t>
+    <t>33,87%</t>
   </si>
   <si>
     <t>35,13%</t>
   </si>
   <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
   </si>
   <si>
     <t>91-99 dependencia escasa</t>
@@ -155,1567 +155,1585 @@
     <t>1,93%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>61-90 dependencia moderada</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>21-60 dependencia severa</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0-20 dependencia total</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Barthel recodificado en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>61-90 dependencia moderada</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>21-60 dependencia severa</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>Barthel recodificado en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>0-20 dependencia total</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>Barthel recodificado en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>0,87%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>2,06%</t>
+    <t>2,03%</t>
   </si>
   <si>
     <t>1,16%</t>
@@ -2130,7 +2148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434EB741-34A1-4C69-A074-937F724AC3A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCB2923-842B-4086-9176-1274B1D20E95}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2458,13 +2476,13 @@
         <v>24907</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>48</v>
@@ -2473,13 +2491,13 @@
         <v>53531</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -2488,19 +2506,19 @@
         <v>78439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>11</v>
@@ -2509,13 +2527,13 @@
         <v>10254</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -2524,13 +2542,13 @@
         <v>25533</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -2539,19 +2557,19 @@
         <v>35787</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -2566,7 +2584,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2575,13 +2593,13 @@
         <v>3222</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2590,13 +2608,13 @@
         <v>4060</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,13 +2629,13 @@
         <v>1031723</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>1291</v>
@@ -2626,13 +2644,13 @@
         <v>1315113</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>2329</v>
@@ -2641,18 +2659,18 @@
         <v>2346836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2670,7 +2688,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2685,7 +2703,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2700,7 +2718,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2733,13 @@
         <v>1605329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>1494</v>
@@ -2730,13 +2748,13 @@
         <v>1525461</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>3054</v>
@@ -2745,13 +2763,13 @@
         <v>3130791</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2784,13 @@
         <v>81080</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -2781,13 +2799,13 @@
         <v>54319</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>134</v>
@@ -2796,13 +2814,13 @@
         <v>135399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2835,13 @@
         <v>4556</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2838,7 +2856,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -2847,13 +2865,13 @@
         <v>7000</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2886,13 @@
         <v>1637</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2883,13 +2901,13 @@
         <v>3394</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2901,16 +2919,16 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2919,13 +2937,13 @@
         <v>810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2934,13 +2952,13 @@
         <v>914</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2949,7 +2967,7 @@
         <v>1723</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
@@ -2961,7 +2979,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2976,7 +2994,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2985,13 +3003,13 @@
         <v>1141</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -3000,13 +3018,13 @@
         <v>1141</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,13 +3039,13 @@
         <v>1693412</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <v>1554</v>
@@ -3036,13 +3054,13 @@
         <v>1587673</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>3203</v>
@@ -3051,18 +3069,18 @@
         <v>3281086</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3080,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3095,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3110,7 +3128,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3143,13 @@
         <v>510214</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H21" s="7">
         <v>425</v>
@@ -3140,13 +3158,13 @@
         <v>449531</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="M21" s="7">
         <v>917</v>
@@ -3155,13 +3173,13 @@
         <v>959745</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3194,13 @@
         <v>37126</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -3191,13 +3209,13 @@
         <v>22657</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -3206,13 +3224,13 @@
         <v>59783</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3245,13 @@
         <v>2614</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3248,7 +3266,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -3257,13 +3275,13 @@
         <v>3478</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3296,13 @@
         <v>1454</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3293,13 +3311,13 @@
         <v>3361</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -3308,19 +3326,19 @@
         <v>4815</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -3335,7 +3353,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3350,7 +3368,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3365,13 +3383,13 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -3386,7 +3404,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3401,7 +3419,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3416,7 +3434,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3449,13 @@
         <v>551408</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H27" s="7">
         <v>452</v>
@@ -3446,13 +3464,13 @@
         <v>476412</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M27" s="7">
         <v>979</v>
@@ -3461,13 +3479,13 @@
         <v>1027820</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,7 +3508,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3505,7 +3523,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3520,7 +3538,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3553,13 @@
         <v>2774078</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>2636</v>
@@ -3550,28 +3568,28 @@
         <v>2702356</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>5327</v>
       </c>
       <c r="N29" s="7">
-        <v>5476432</v>
+        <v>5476433</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3604,13 @@
         <v>435452</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H30" s="7">
         <v>534</v>
@@ -3601,13 +3619,13 @@
         <v>538939</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M30" s="7">
         <v>985</v>
@@ -3616,13 +3634,13 @@
         <v>974391</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3655,13 @@
         <v>27113</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H31" s="7">
         <v>44</v>
@@ -3652,13 +3670,13 @@
         <v>46808</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M31" s="7">
         <v>73</v>
@@ -3667,13 +3685,13 @@
         <v>73922</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3706,13 @@
         <v>27999</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H32" s="7">
         <v>54</v>
@@ -3703,13 +3721,13 @@
         <v>60285</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M32" s="7">
         <v>84</v>
@@ -3718,19 +3736,19 @@
         <v>88284</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C33" s="7">
         <v>12</v>
@@ -3739,13 +3757,13 @@
         <v>11063</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
@@ -3754,13 +3772,13 @@
         <v>26446</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M33" s="7">
         <v>36</v>
@@ -3769,19 +3787,19 @@
         <v>37510</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
@@ -3790,13 +3808,13 @@
         <v>838</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -3805,13 +3823,13 @@
         <v>4363</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -3823,7 +3841,7 @@
         <v>15</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>13</v>
@@ -3841,13 +3859,13 @@
         <v>3276544</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H35" s="7">
         <v>3297</v>
@@ -3856,33 +3874,33 @@
         <v>3379198</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M35" s="7">
         <v>6511</v>
       </c>
       <c r="N35" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3901,7 +3919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E21523-BFA4-4656-8C64-8B0906BB8126}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D35E6F5-C264-419D-A9B2-0D7BE29A16D4}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3918,7 +3936,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4031,7 +4049,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4061,7 +4079,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4094,13 @@
         <v>560245</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="H5" s="7">
         <v>651</v>
@@ -4091,13 +4109,13 @@
         <v>703252</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="M5" s="7">
         <v>1181</v>
@@ -4106,13 +4124,13 @@
         <v>1263497</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4145,13 @@
         <v>324318</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H6" s="7">
         <v>402</v>
@@ -4142,13 +4160,13 @@
         <v>423990</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M6" s="7">
         <v>703</v>
@@ -4157,13 +4175,13 @@
         <v>748309</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4196,13 @@
         <v>15633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -4193,13 +4211,13 @@
         <v>37307</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -4208,13 +4226,13 @@
         <v>52940</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4247,13 @@
         <v>51010</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>110</v>
@@ -4244,13 +4262,13 @@
         <v>120306</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>153</v>
@@ -4259,19 +4277,19 @@
         <v>171316</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>15</v>
@@ -4280,13 +4298,13 @@
         <v>18283</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H9" s="7">
         <v>37</v>
@@ -4295,13 +4313,13 @@
         <v>40143</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M9" s="7">
         <v>52</v>
@@ -4310,19 +4328,19 @@
         <v>58426</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7">
         <v>5</v>
@@ -4331,13 +4349,13 @@
         <v>5153</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -4346,13 +4364,13 @@
         <v>12798</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4361,13 +4379,13 @@
         <v>17952</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4400,13 @@
         <v>974643</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>1247</v>
@@ -4397,13 +4415,13 @@
         <v>1337796</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>2155</v>
@@ -4412,18 +4430,18 @@
         <v>2312440</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4441,7 +4459,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4456,7 +4474,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4471,7 +4489,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4504,13 @@
         <v>1845292</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>1558</v>
@@ -4501,13 +4519,13 @@
         <v>1674729</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>3309</v>
@@ -4516,13 +4534,13 @@
         <v>3520021</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4555,13 @@
         <v>105385</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -4552,13 +4570,13 @@
         <v>66772</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
         <v>154</v>
@@ -4567,13 +4585,13 @@
         <v>172158</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4606,13 @@
         <v>5176</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -4603,13 +4621,13 @@
         <v>3524</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>244</v>
+        <v>98</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -4618,10 +4636,10 @@
         <v>8700</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>247</v>
@@ -4642,10 +4660,10 @@
         <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4654,13 +4672,13 @@
         <v>10354</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4669,19 +4687,19 @@
         <v>15324</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -4690,13 +4708,13 @@
         <v>2141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4705,13 +4723,13 @@
         <v>1096</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4720,19 +4738,19 @@
         <v>3237</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -4741,13 +4759,13 @@
         <v>992</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -4762,7 +4780,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -4771,13 +4789,13 @@
         <v>2320</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4810,13 @@
         <v>1963957</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <v>1635</v>
@@ -4807,13 +4825,13 @@
         <v>1757803</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>3491</v>
@@ -4822,18 +4840,18 @@
         <v>3721760</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4851,7 +4869,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4866,7 +4884,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4881,7 +4899,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4944,13 @@
         <v>890991</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,10 +4983,10 @@
         <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -4977,13 +4995,13 @@
         <v>42369</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +5016,13 @@
         <v>1043</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5013,13 +5031,13 @@
         <v>1109</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>273</v>
+        <v>57</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5028,7 +5046,7 @@
         <v>2151</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
@@ -5055,7 +5073,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -5070,7 +5088,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>134</v>
+        <v>276</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5079,19 +5097,19 @@
         <v>2215</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -5100,13 +5118,13 @@
         <v>986</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5115,13 +5133,13 @@
         <v>1100</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5130,19 +5148,19 @@
         <v>2085</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -5157,7 +5175,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5172,7 +5190,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5187,7 +5205,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5220,13 @@
         <v>481181</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H27" s="7">
         <v>412</v>
@@ -5217,13 +5235,13 @@
         <v>458631</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M27" s="7">
         <v>850</v>
@@ -5232,13 +5250,13 @@
         <v>939812</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,7 +5279,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5276,7 +5294,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5291,7 +5309,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,13 +5324,13 @@
         <v>2860145</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H29" s="7">
         <v>2603</v>
@@ -5321,13 +5339,13 @@
         <v>2814365</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M29" s="7">
         <v>5301</v>
@@ -5336,13 +5354,13 @@
         <v>5674510</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5375,13 @@
         <v>454250</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H30" s="7">
         <v>478</v>
@@ -5372,13 +5390,13 @@
         <v>508585</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M30" s="7">
         <v>890</v>
@@ -5387,13 +5405,13 @@
         <v>962835</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>151</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5426,13 @@
         <v>21852</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="H31" s="7">
         <v>40</v>
@@ -5423,13 +5441,13 @@
         <v>41940</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>173</v>
+        <v>299</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="M31" s="7">
         <v>60</v>
@@ -5438,13 +5456,13 @@
         <v>63792</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5477,13 @@
         <v>55980</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H32" s="7">
         <v>122</v>
@@ -5474,13 +5492,13 @@
         <v>132875</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M32" s="7">
         <v>170</v>
@@ -5489,19 +5507,19 @@
         <v>188855</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C33" s="7">
         <v>18</v>
@@ -5510,13 +5528,13 @@
         <v>21410</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H33" s="7">
         <v>39</v>
@@ -5525,13 +5543,13 @@
         <v>42338</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>155</v>
+        <v>312</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M33" s="7">
         <v>57</v>
@@ -5540,19 +5558,19 @@
         <v>63748</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>309</v>
+        <v>136</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>155</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C34" s="7">
         <v>6</v>
@@ -5564,10 +5582,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H34" s="7">
         <v>12</v>
@@ -5576,13 +5594,13 @@
         <v>14127</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M34" s="7">
         <v>18</v>
@@ -5591,13 +5609,13 @@
         <v>20272</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5630,13 @@
         <v>3419782</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H35" s="7">
         <v>3294</v>
@@ -5627,13 +5645,13 @@
         <v>3554230</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M35" s="7">
         <v>6496</v>
@@ -5642,18 +5660,18 @@
         <v>6974012</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5672,7 +5690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3250EF-21B6-40A4-B32A-C7D877354F1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24FDE2C-1930-476F-9389-C1C106462472}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5689,7 +5707,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5817,7 +5835,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5832,7 +5850,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5865,13 @@
         <v>400445</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
         <v>421</v>
@@ -5862,13 +5880,13 @@
         <v>439903</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>797</v>
@@ -5877,13 +5895,13 @@
         <v>840349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5916,13 @@
         <v>277404</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H6" s="7">
         <v>318</v>
@@ -5913,13 +5931,13 @@
         <v>365129</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M6" s="7">
         <v>619</v>
@@ -5928,13 +5946,13 @@
         <v>642532</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5967,13 @@
         <v>20216</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>57</v>
+        <v>333</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -5964,13 +5982,13 @@
         <v>47692</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -5979,13 +5997,13 @@
         <v>67908</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +6018,13 @@
         <v>36449</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>92</v>
+        <v>338</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>83</v>
@@ -6015,13 +6033,13 @@
         <v>104641</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>122</v>
@@ -6030,19 +6048,19 @@
         <v>141090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>22</v>
@@ -6051,13 +6069,13 @@
         <v>19008</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -6066,13 +6084,13 @@
         <v>27942</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -6081,19 +6099,19 @@
         <v>46949</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>346</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -6102,13 +6120,13 @@
         <v>826</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>295</v>
+        <v>99</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -6117,13 +6135,13 @@
         <v>9353</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -6132,13 +6150,13 @@
         <v>10179</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>349</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6171,13 @@
         <v>754347</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>892</v>
@@ -6168,13 +6186,13 @@
         <v>994660</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>1654</v>
@@ -6183,18 +6201,18 @@
         <v>1749007</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6212,7 +6230,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6227,7 +6245,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6242,7 +6260,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,13 +6275,13 @@
         <v>1883853</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>1751</v>
@@ -6272,13 +6290,13 @@
         <v>1800226</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>3506</v>
@@ -6287,13 +6305,13 @@
         <v>3684079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,13 +6326,13 @@
         <v>174256</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>122</v>
@@ -6323,13 +6341,13 @@
         <v>143410</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>299</v>
@@ -6338,13 +6356,13 @@
         <v>317666</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,13 +6377,13 @@
         <v>7636</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>368</v>
+        <v>253</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -6374,13 +6392,13 @@
         <v>19226</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>171</v>
+        <v>372</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>170</v>
+        <v>373</v>
       </c>
       <c r="M15" s="7">
         <v>23</v>
@@ -6389,13 +6407,13 @@
         <v>26862</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>370</v>
+        <v>98</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6428,13 @@
         <v>6914</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -6425,13 +6443,13 @@
         <v>23238</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>161</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -6440,19 +6458,19 @@
         <v>30152</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>274</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -6461,13 +6479,13 @@
         <v>1921</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6476,13 +6494,13 @@
         <v>2200</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -6491,19 +6509,19 @@
         <v>4121</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>376</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
@@ -6512,13 +6530,13 @@
         <v>1804</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>377</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6533,7 +6551,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -6542,13 +6560,13 @@
         <v>1804</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>105</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6581,13 @@
         <v>2076385</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <v>1908</v>
@@ -6578,13 +6596,13 @@
         <v>1988300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>3860</v>
@@ -6593,18 +6611,18 @@
         <v>4064685</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6622,7 +6640,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6637,7 +6655,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6652,7 +6670,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6685,13 @@
         <v>504857</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>380</v>
+        <v>235</v>
       </c>
       <c r="H21" s="7">
         <v>500</v>
@@ -6682,13 +6700,13 @@
         <v>515466</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M21" s="7">
         <v>960</v>
@@ -6697,13 +6715,13 @@
         <v>1020323</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6736,13 @@
         <v>36174</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>118</v>
+        <v>389</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -6733,13 +6751,13 @@
         <v>27757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -6748,13 +6766,13 @@
         <v>63931</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>394</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6787,13 @@
         <v>2678</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>395</v>
+        <v>313</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6784,13 +6802,13 @@
         <v>4542</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>272</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>218</v>
+        <v>396</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -6799,13 +6817,13 @@
         <v>7220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>370</v>
+        <v>98</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>376</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>396</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6838,13 @@
         <v>3177</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6841,7 +6859,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -6850,19 +6868,19 @@
         <v>3177</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>307</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -6877,7 +6895,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6892,7 +6910,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -6901,19 +6919,19 @@
         <v>1376</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -6928,7 +6946,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6943,7 +6961,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6958,7 +6976,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,13 +6991,13 @@
         <v>546886</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H27" s="7">
         <v>526</v>
@@ -6988,13 +7006,13 @@
         <v>549140</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M27" s="7">
         <v>1027</v>
@@ -7003,13 +7021,13 @@
         <v>1096026</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7032,7 +7050,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7047,7 +7065,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7062,7 +7080,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,10 +7098,10 @@
         <v>400</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H29" s="7">
         <v>2672</v>
@@ -7092,13 +7110,13 @@
         <v>2755595</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M29" s="7">
         <v>5263</v>
@@ -7107,13 +7125,13 @@
         <v>5544750</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,7 +7200,7 @@
         <v>417</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>418</v>
@@ -7209,13 +7227,13 @@
         <v>101991</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7248,13 @@
         <v>46539</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>273</v>
+        <v>167</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>423</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H32" s="7">
         <v>101</v>
@@ -7245,13 +7263,13 @@
         <v>127879</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>330</v>
+        <v>424</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>425</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="M32" s="7">
         <v>151</v>
@@ -7260,19 +7278,19 @@
         <v>174418</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C33" s="7">
         <v>24</v>
@@ -7284,10 +7302,10 @@
         <v>428</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="H33" s="7">
         <v>25</v>
@@ -7296,13 +7314,13 @@
         <v>31517</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>95</v>
+        <v>372</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M33" s="7">
         <v>49</v>
@@ -7311,19 +7329,19 @@
         <v>52446</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
@@ -7335,10 +7353,10 @@
         <v>15</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>432</v>
+        <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -7347,13 +7365,13 @@
         <v>9353</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -7362,13 +7380,13 @@
         <v>11983</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>375</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7383,13 +7401,13 @@
         <v>3377618</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H35" s="7">
         <v>3326</v>
@@ -7398,13 +7416,13 @@
         <v>3532100</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M35" s="7">
         <v>6541</v>
@@ -7413,18 +7431,18 @@
         <v>6909718</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -7443,7 +7461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3BC215-127E-4026-95EA-DAAAE3E1EF51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28096946-1260-4FDF-9975-B62B14CE94E2}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7460,7 +7478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7573,7 +7591,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7588,7 +7606,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7603,7 +7621,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7618,13 +7636,13 @@
         <v>256183</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H5" s="7">
         <v>418</v>
@@ -7633,13 +7651,13 @@
         <v>286765</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M5" s="7">
         <v>684</v>
@@ -7648,13 +7666,13 @@
         <v>542948</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7669,13 +7687,13 @@
         <v>197484</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H6" s="7">
         <v>539</v>
@@ -7684,13 +7702,13 @@
         <v>287390</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M6" s="7">
         <v>826</v>
@@ -7699,13 +7717,13 @@
         <v>484873</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,13 +7738,13 @@
         <v>28971</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>452</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H7" s="7">
         <v>166</v>
@@ -7735,13 +7753,13 @@
         <v>93413</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>457</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
         <v>212</v>
@@ -7786,13 +7804,13 @@
         <v>108428</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M8" s="7">
         <v>272</v>
@@ -7801,19 +7819,19 @@
         <v>152863</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>21</v>
@@ -7822,13 +7840,13 @@
         <v>13343</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -7837,7 +7855,7 @@
         <v>53539</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>213</v>
+        <v>472</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>473</v>
@@ -7864,7 +7882,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7">
         <v>3</v>
@@ -7873,13 +7891,13 @@
         <v>1217</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>310</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -7888,13 +7906,13 @@
         <v>6419</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>429</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -7906,10 +7924,10 @@
         <v>478</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,13 +7942,13 @@
         <v>541634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>1427</v>
@@ -7939,13 +7957,13 @@
         <v>835953</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>2118</v>
@@ -7954,18 +7972,18 @@
         <v>1377586</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7977,13 +7995,13 @@
         <v>833</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -7998,7 +8016,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -8007,13 +8025,13 @@
         <v>833</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8028,13 +8046,13 @@
         <v>1866623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H13" s="7">
         <v>2393</v>
@@ -8043,13 +8061,13 @@
         <v>1863475</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M13" s="7">
         <v>3958</v>
@@ -8058,13 +8076,13 @@
         <v>3730098</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,28 +8097,28 @@
         <v>245354</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H14" s="7">
         <v>404</v>
       </c>
       <c r="I14" s="7">
-        <v>320915</v>
+        <v>320916</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>361</v>
+        <v>493</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M14" s="7">
         <v>757</v>
@@ -8109,13 +8127,13 @@
         <v>566270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,13 +8148,13 @@
         <v>22840</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>495</v>
+        <v>252</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>399</v>
+        <v>181</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>132</v>
+        <v>498</v>
       </c>
       <c r="H15" s="7">
         <v>55</v>
@@ -8145,13 +8163,13 @@
         <v>30418</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>371</v>
+        <v>163</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
@@ -8160,13 +8178,13 @@
         <v>53258</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>498</v>
+        <v>169</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>371</v>
+        <v>501</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,10 +8202,10 @@
         <v>417</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>372</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -8196,13 +8214,13 @@
         <v>25284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>349</v>
+        <v>278</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>502</v>
+        <v>420</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -8211,19 +8229,19 @@
         <v>44738</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>423</v>
+        <v>64</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>503</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>38</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="7">
         <v>9</v>
@@ -8232,13 +8250,13 @@
         <v>6917</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>375</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -8247,13 +8265,13 @@
         <v>8956</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -8262,19 +8280,19 @@
         <v>15873</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>478</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -8289,7 +8307,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -8298,13 +8316,13 @@
         <v>473</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>246</v>
+        <v>101</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -8313,13 +8331,13 @@
         <v>473</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8334,28 +8352,28 @@
         <v>2162022</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <v>2921</v>
       </c>
       <c r="I19" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>4913</v>
@@ -8364,18 +8382,18 @@
         <v>4411543</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8393,7 +8411,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -8402,13 +8420,13 @@
         <v>435</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>376</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -8417,13 +8435,13 @@
         <v>435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8438,13 +8456,13 @@
         <v>561053</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>138</v>
+        <v>509</v>
       </c>
       <c r="H21" s="7">
         <v>851</v>
@@ -8453,13 +8471,13 @@
         <v>635206</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="M21" s="7">
         <v>1364</v>
@@ -8468,13 +8486,13 @@
         <v>1196260</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8489,13 +8507,13 @@
         <v>98075</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H22" s="7">
         <v>127</v>
@@ -8504,13 +8522,13 @@
         <v>65212</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M22" s="7">
         <v>275</v>
@@ -8519,13 +8537,13 @@
         <v>163288</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8540,13 +8558,13 @@
         <v>7633</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>249</v>
+        <v>372</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>44</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -8555,13 +8573,13 @@
         <v>7297</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>204</v>
+        <v>349</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -8570,13 +8588,13 @@
         <v>14930</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>374</v>
+        <v>174</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>522</v>
+        <v>314</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8591,13 +8609,13 @@
         <v>6118</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -8606,13 +8624,13 @@
         <v>5736</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -8621,19 +8639,19 @@
         <v>11854</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -8642,13 +8660,13 @@
         <v>159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>397</v>
+        <v>506</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8663,7 +8681,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -8672,19 +8690,19 @@
         <v>159</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -8699,7 +8717,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8714,7 +8732,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8729,7 +8747,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8744,13 +8762,13 @@
         <v>673039</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H27" s="7">
         <v>1004</v>
@@ -8759,13 +8777,13 @@
         <v>713886</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M27" s="7">
         <v>1685</v>
@@ -8774,13 +8792,13 @@
         <v>1386926</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8797,13 +8815,13 @@
         <v>833</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -8812,13 +8830,13 @@
         <v>435</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -8827,13 +8845,13 @@
         <v>1268</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8845,16 +8863,16 @@
         <v>2344</v>
       </c>
       <c r="D29" s="7">
-        <v>2683859</v>
+        <v>2683858</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="H29" s="7">
         <v>3662</v>
@@ -8863,28 +8881,28 @@
         <v>2785447</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="M29" s="7">
         <v>6006</v>
       </c>
       <c r="N29" s="7">
-        <v>5469306</v>
+        <v>5469305</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8896,16 +8914,16 @@
         <v>788</v>
       </c>
       <c r="D30" s="7">
-        <v>540914</v>
+        <v>540913</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="H30" s="7">
         <v>1070</v>
@@ -8914,13 +8932,13 @@
         <v>673518</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="M30" s="7">
         <v>1858</v>
@@ -8929,13 +8947,13 @@
         <v>1214431</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8950,13 +8968,13 @@
         <v>59444</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>524</v>
+        <v>399</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="H31" s="7">
         <v>236</v>
@@ -8965,13 +8983,13 @@
         <v>131128</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="M31" s="7">
         <v>328</v>
@@ -8980,13 +8998,13 @@
         <v>190572</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9001,13 +9019,13 @@
         <v>70008</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>62</v>
+        <v>396</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>550</v>
+        <v>397</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>341</v>
+        <v>557</v>
       </c>
       <c r="H32" s="7">
         <v>265</v>
@@ -9016,13 +9034,13 @@
         <v>139447</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>553</v>
+        <v>350</v>
       </c>
       <c r="M32" s="7">
         <v>370</v>
@@ -9031,19 +9049,19 @@
         <v>209456</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>555</v>
+        <v>91</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C33" s="7">
         <v>31</v>
@@ -9052,13 +9070,13 @@
         <v>20419</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>163</v>
+        <v>526</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>198</v>
+        <v>562</v>
       </c>
       <c r="H33" s="7">
         <v>104</v>
@@ -9067,13 +9085,13 @@
         <v>62495</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="M33" s="7">
         <v>135</v>
@@ -9082,19 +9100,19 @@
         <v>82914</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>224</v>
+        <v>311</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>524</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
@@ -9103,13 +9121,13 @@
         <v>1217</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="H34" s="7">
         <v>14</v>
@@ -9121,10 +9139,10 @@
         <v>13</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="M34" s="7">
         <v>17</v>
@@ -9133,13 +9151,13 @@
         <v>8109</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9151,16 +9169,16 @@
         <v>3364</v>
       </c>
       <c r="D35" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H35" s="7">
         <v>5352</v>
@@ -9169,33 +9187,33 @@
         <v>3799360</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M35" s="7">
         <v>8716</v>
       </c>
       <c r="N35" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/barthel_r-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/barthel_r-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29573CC5-F451-455A-AB62-3453B3FFCF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7593952-46CF-48DE-8178-8B0C7D3CD096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE859F9F-512B-4D4D-838F-1BE668915C40}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{794506FE-B68B-4D78-998D-09C6364FD17E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="562">
   <si>
     <t>Barthel recodificado en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>63,83%</t>
   </si>
   <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
   </si>
   <si>
     <t>55,31%</t>
   </si>
   <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
   </si>
   <si>
     <t>59,05%</t>
   </si>
   <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
   </si>
   <si>
     <t>100 independencia</t>
@@ -125,28 +125,28 @@
     <t>30,75%</t>
   </si>
   <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
   </si>
   <si>
     <t>35,13%</t>
   </si>
   <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
   </si>
   <si>
     <t>91-99 dependencia escasa</t>
@@ -155,1588 +155,1576 @@
     <t>1,93%</t>
   </si>
   <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>61-90 dependencia moderada</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>21-60 dependencia severa</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0-20 dependencia total</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Barthel recodificado en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>Barthel recodificado en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>Barthel recodificado en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>61-90 dependencia moderada</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>21-60 dependencia severa</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0-20 dependencia total</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
     <t>1,34%</t>
   </si>
   <si>
     <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
   </si>
 </sst>
 </file>
@@ -2148,7 +2136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCB2923-842B-4086-9176-1274B1D20E95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857DCA86-351E-400A-945A-DDF1A4682F8C}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2482,7 +2470,7 @@
         <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7">
         <v>48</v>
@@ -2491,13 +2479,13 @@
         <v>53531</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -2506,19 +2494,19 @@
         <v>78439</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>11</v>
@@ -2527,13 +2515,13 @@
         <v>10254</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -2542,13 +2530,13 @@
         <v>25533</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -2557,19 +2545,19 @@
         <v>35787</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -2584,7 +2572,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2593,13 +2581,13 @@
         <v>3222</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2608,13 +2596,13 @@
         <v>4060</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,13 +2617,13 @@
         <v>1031723</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>1291</v>
@@ -2644,13 +2632,13 @@
         <v>1315113</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>2329</v>
@@ -2659,18 +2647,18 @@
         <v>2346836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2688,7 +2676,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2703,7 +2691,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2718,7 +2706,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,16 +2718,16 @@
         <v>1560</v>
       </c>
       <c r="D13" s="7">
-        <v>1605329</v>
+        <v>1605330</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>1494</v>
@@ -2748,13 +2736,13 @@
         <v>1525461</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>3054</v>
@@ -2763,13 +2751,13 @@
         <v>3130791</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2772,13 @@
         <v>81080</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -2799,13 +2787,13 @@
         <v>54319</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>134</v>
@@ -2814,13 +2802,13 @@
         <v>135399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2823,13 @@
         <v>4556</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2856,7 +2844,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -2865,13 +2853,13 @@
         <v>7000</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,13 +2874,13 @@
         <v>1637</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2901,13 +2889,13 @@
         <v>3394</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2919,16 +2907,16 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2937,13 +2925,13 @@
         <v>810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2952,13 +2940,13 @@
         <v>914</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2967,19 +2955,19 @@
         <v>1723</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2994,7 +2982,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -3003,13 +2991,13 @@
         <v>1141</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -3018,13 +3006,13 @@
         <v>1141</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,16 +3024,16 @@
         <v>1649</v>
       </c>
       <c r="D19" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7">
         <v>1554</v>
@@ -3054,13 +3042,13 @@
         <v>1587673</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
         <v>3203</v>
@@ -3069,18 +3057,18 @@
         <v>3281086</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3098,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3113,7 +3101,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3128,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3131,13 @@
         <v>510214</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H21" s="7">
         <v>425</v>
@@ -3158,13 +3146,13 @@
         <v>449531</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M21" s="7">
         <v>917</v>
@@ -3173,13 +3161,13 @@
         <v>959745</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3182,13 @@
         <v>37126</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -3209,13 +3197,13 @@
         <v>22657</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -3224,13 +3212,13 @@
         <v>59783</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3233,13 @@
         <v>2614</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3266,7 +3254,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -3275,13 +3263,13 @@
         <v>3478</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3284,13 @@
         <v>1454</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3311,13 +3299,13 @@
         <v>3361</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -3326,19 +3314,19 @@
         <v>4815</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -3353,7 +3341,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3368,7 +3356,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3383,13 +3371,13 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -3404,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3419,7 +3407,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3434,7 +3422,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3437,13 @@
         <v>551408</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H27" s="7">
         <v>452</v>
@@ -3464,13 +3452,13 @@
         <v>476412</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M27" s="7">
         <v>979</v>
@@ -3479,13 +3467,13 @@
         <v>1027820</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,7 +3496,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3523,7 +3511,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3538,7 +3526,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,16 +3538,16 @@
         <v>2691</v>
       </c>
       <c r="D29" s="7">
-        <v>2774078</v>
+        <v>2774077</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>2636</v>
@@ -3568,13 +3556,13 @@
         <v>2702356</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M29" s="7">
         <v>5327</v>
@@ -3583,13 +3571,13 @@
         <v>5476433</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3592,13 @@
         <v>435452</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H30" s="7">
         <v>534</v>
@@ -3619,13 +3607,13 @@
         <v>538939</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M30" s="7">
         <v>985</v>
@@ -3634,13 +3622,13 @@
         <v>974391</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3643,13 @@
         <v>27113</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H31" s="7">
         <v>44</v>
@@ -3670,13 +3658,13 @@
         <v>46808</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M31" s="7">
         <v>73</v>
@@ -3685,13 +3673,13 @@
         <v>73922</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3694,13 @@
         <v>27999</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H32" s="7">
         <v>54</v>
@@ -3721,13 +3709,13 @@
         <v>60285</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M32" s="7">
         <v>84</v>
@@ -3736,19 +3724,19 @@
         <v>88284</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7">
         <v>12</v>
@@ -3757,13 +3745,13 @@
         <v>11063</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
@@ -3772,13 +3760,13 @@
         <v>26446</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="M33" s="7">
         <v>36</v>
@@ -3787,19 +3775,19 @@
         <v>37510</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
@@ -3808,13 +3796,13 @@
         <v>838</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -3823,13 +3811,13 @@
         <v>4363</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -3841,10 +3829,10 @@
         <v>15</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,16 +3844,16 @@
         <v>3214</v>
       </c>
       <c r="D35" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H35" s="7">
         <v>3297</v>
@@ -3874,13 +3862,13 @@
         <v>3379198</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M35" s="7">
         <v>6511</v>
@@ -3889,18 +3877,18 @@
         <v>6655741</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3919,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D35E6F5-C264-419D-A9B2-0D7BE29A16D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4A0019-9F1B-4C2D-B121-61E8A40B8D36}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3936,7 +3924,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4049,7 +4037,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4079,7 +4067,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4082,13 @@
         <v>560245</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>651</v>
@@ -4109,13 +4097,13 @@
         <v>703252</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>1181</v>
@@ -4124,13 +4112,13 @@
         <v>1263497</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4133,13 @@
         <v>324318</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H6" s="7">
         <v>402</v>
@@ -4160,13 +4148,13 @@
         <v>423990</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="M6" s="7">
         <v>703</v>
@@ -4175,13 +4163,13 @@
         <v>748309</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4184,13 @@
         <v>15633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -4211,13 +4199,13 @@
         <v>37307</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -4226,13 +4214,13 @@
         <v>52940</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4235,13 @@
         <v>51010</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>110</v>
@@ -4262,13 +4250,13 @@
         <v>120306</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>153</v>
@@ -4277,19 +4265,19 @@
         <v>171316</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>15</v>
@@ -4298,13 +4286,13 @@
         <v>18283</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H9" s="7">
         <v>37</v>
@@ -4313,13 +4301,13 @@
         <v>40143</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="M9" s="7">
         <v>52</v>
@@ -4328,19 +4316,19 @@
         <v>58426</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="7">
         <v>5</v>
@@ -4349,13 +4337,13 @@
         <v>5153</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -4364,13 +4352,13 @@
         <v>12798</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4379,13 +4367,13 @@
         <v>17952</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4388,13 @@
         <v>974643</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>1247</v>
@@ -4415,13 +4403,13 @@
         <v>1337796</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>2155</v>
@@ -4430,18 +4418,18 @@
         <v>2312440</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4459,7 +4447,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4474,7 +4462,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4489,7 +4477,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4492,13 @@
         <v>1845292</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>1558</v>
@@ -4519,13 +4507,13 @@
         <v>1674729</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
         <v>3309</v>
@@ -4534,13 +4522,13 @@
         <v>3520021</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4543,13 @@
         <v>105385</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -4570,13 +4558,13 @@
         <v>66772</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>154</v>
@@ -4585,13 +4573,13 @@
         <v>172158</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4594,13 @@
         <v>5176</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -4621,13 +4609,13 @@
         <v>3524</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -4636,13 +4624,13 @@
         <v>8700</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>246</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4645,13 @@
         <v>4970</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>249</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4672,13 +4660,13 @@
         <v>10354</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4687,19 +4675,19 @@
         <v>15324</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>248</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -4708,13 +4696,13 @@
         <v>2141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4723,13 +4711,13 @@
         <v>1096</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4738,19 +4726,19 @@
         <v>3237</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -4759,7 +4747,7 @@
         <v>992</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
@@ -4780,7 +4768,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -4789,13 +4777,13 @@
         <v>2320</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4798,13 @@
         <v>1963957</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7">
         <v>1635</v>
@@ -4825,13 +4813,13 @@
         <v>1757803</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
         <v>3491</v>
@@ -4840,18 +4828,18 @@
         <v>3721760</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4869,7 +4857,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4884,7 +4872,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4899,7 +4887,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>246</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4902,13 @@
         <v>454606</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H21" s="7">
         <v>394</v>
@@ -4929,13 +4917,13 @@
         <v>436385</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M21" s="7">
         <v>811</v>
@@ -4944,13 +4932,13 @@
         <v>890991</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>116</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4953,13 @@
         <v>24546</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4980,13 +4968,13 @@
         <v>17823</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -4995,13 +4983,13 @@
         <v>42369</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5004,13 @@
         <v>1043</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5031,13 +5019,13 @@
         <v>1109</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>57</v>
+        <v>269</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5046,13 +5034,13 @@
         <v>2151</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>246</v>
+        <v>104</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,7 +5061,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -5082,13 +5070,13 @@
         <v>2215</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5097,19 +5085,19 @@
         <v>2215</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -5118,13 +5106,13 @@
         <v>986</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>278</v>
+        <v>62</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5133,7 +5121,7 @@
         <v>1100</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
@@ -5148,19 +5136,19 @@
         <v>2085</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>279</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -5175,7 +5163,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5190,7 +5178,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5205,7 +5193,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>246</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5208,13 @@
         <v>481181</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H27" s="7">
         <v>412</v>
@@ -5235,13 +5223,13 @@
         <v>458631</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M27" s="7">
         <v>850</v>
@@ -5250,13 +5238,13 @@
         <v>939812</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,7 +5267,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5294,7 +5282,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5309,7 +5297,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5312,13 @@
         <v>2860145</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H29" s="7">
         <v>2603</v>
@@ -5339,13 +5327,13 @@
         <v>2814365</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M29" s="7">
         <v>5301</v>
@@ -5354,13 +5342,13 @@
         <v>5674510</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5363,13 @@
         <v>454250</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H30" s="7">
         <v>478</v>
@@ -5390,13 +5378,13 @@
         <v>508585</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M30" s="7">
         <v>890</v>
@@ -5405,13 +5393,13 @@
         <v>962835</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5414,13 @@
         <v>21852</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="H31" s="7">
         <v>40</v>
@@ -5441,13 +5429,13 @@
         <v>41940</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M31" s="7">
         <v>60</v>
@@ -5456,13 +5444,13 @@
         <v>63792</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>136</v>
+        <v>297</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5465,13 @@
         <v>55980</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H32" s="7">
         <v>122</v>
@@ -5492,13 +5480,13 @@
         <v>132875</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M32" s="7">
         <v>170</v>
@@ -5507,19 +5495,19 @@
         <v>188855</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7">
         <v>18</v>
@@ -5528,13 +5516,13 @@
         <v>21410</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>311</v>
+        <v>245</v>
       </c>
       <c r="H33" s="7">
         <v>39</v>
@@ -5543,13 +5531,13 @@
         <v>42338</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="M33" s="7">
         <v>57</v>
@@ -5558,19 +5546,19 @@
         <v>63748</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>136</v>
+        <v>297</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="7">
         <v>6</v>
@@ -5582,10 +5570,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="H34" s="7">
         <v>12</v>
@@ -5594,13 +5582,13 @@
         <v>14127</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M34" s="7">
         <v>18</v>
@@ -5609,13 +5597,13 @@
         <v>20272</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5618,13 @@
         <v>3419782</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H35" s="7">
         <v>3294</v>
@@ -5645,13 +5633,13 @@
         <v>3554230</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M35" s="7">
         <v>6496</v>
@@ -5660,18 +5648,18 @@
         <v>6974012</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5690,7 +5678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24FDE2C-1930-476F-9389-C1C106462472}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6919C48F-E2B4-4610-B445-D2ECE2C013D4}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5707,7 +5695,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5820,7 +5808,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5835,7 +5823,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5850,7 +5838,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5853,13 @@
         <v>400445</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="H5" s="7">
         <v>421</v>
@@ -5880,13 +5868,13 @@
         <v>439903</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>797</v>
@@ -5895,13 +5883,13 @@
         <v>840349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5904,13 @@
         <v>277404</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H6" s="7">
         <v>318</v>
@@ -5931,13 +5919,13 @@
         <v>365129</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M6" s="7">
         <v>619</v>
@@ -5946,13 +5934,13 @@
         <v>642532</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5955,13 @@
         <v>20216</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>54</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -5982,13 +5970,13 @@
         <v>47692</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -5997,13 +5985,13 @@
         <v>67908</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>210</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,13 +6006,13 @@
         <v>36449</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>83</v>
@@ -6033,13 +6021,13 @@
         <v>104641</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>122</v>
@@ -6048,19 +6036,19 @@
         <v>141090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>22</v>
@@ -6069,13 +6057,13 @@
         <v>19008</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -6084,13 +6072,13 @@
         <v>27942</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>348</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -6099,19 +6087,19 @@
         <v>46949</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>327</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>347</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -6120,13 +6108,13 @@
         <v>826</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>99</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -6135,13 +6123,13 @@
         <v>9353</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -6150,13 +6138,13 @@
         <v>10179</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>104</v>
+        <v>349</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6159,13 @@
         <v>754347</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>892</v>
@@ -6186,13 +6174,13 @@
         <v>994660</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>1654</v>
@@ -6201,18 +6189,18 @@
         <v>1749007</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6230,7 +6218,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6245,7 +6233,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6260,7 +6248,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6263,13 @@
         <v>1883853</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>1751</v>
@@ -6290,13 +6278,13 @@
         <v>1800226</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>3506</v>
@@ -6305,13 +6293,13 @@
         <v>3684079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6314,13 @@
         <v>174256</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H14" s="7">
         <v>122</v>
@@ -6341,13 +6329,13 @@
         <v>143410</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>299</v>
@@ -6356,13 +6344,13 @@
         <v>317666</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,13 +6365,13 @@
         <v>7636</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>253</v>
+        <v>368</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>369</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -6392,7 +6380,7 @@
         <v>19226</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>311</v>
+        <v>371</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>372</v>
@@ -6407,13 +6395,13 @@
         <v>26862</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>98</v>
+        <v>374</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>311</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,13 +6416,13 @@
         <v>6914</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -6443,13 +6431,13 @@
         <v>23238</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>161</v>
+        <v>298</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>378</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -6458,19 +6446,19 @@
         <v>30152</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>129</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -6479,13 +6467,13 @@
         <v>1921</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6494,13 +6482,13 @@
         <v>2200</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -6509,19 +6497,19 @@
         <v>4121</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
@@ -6530,13 +6518,13 @@
         <v>1804</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>377</v>
+        <v>176</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6551,7 +6539,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -6560,13 +6548,13 @@
         <v>1804</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,13 +6569,13 @@
         <v>2076385</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7">
         <v>1908</v>
@@ -6596,13 +6584,13 @@
         <v>1988300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
         <v>3860</v>
@@ -6611,18 +6599,18 @@
         <v>4064685</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6640,7 +6628,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6655,7 +6643,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6670,7 +6658,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6673,13 @@
         <v>504857</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>235</v>
+        <v>385</v>
       </c>
       <c r="H21" s="7">
         <v>500</v>
@@ -6700,13 +6688,13 @@
         <v>515466</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M21" s="7">
         <v>960</v>
@@ -6715,13 +6703,13 @@
         <v>1020323</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>387</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6724,13 @@
         <v>36174</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>389</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -6751,13 +6739,13 @@
         <v>27757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -6766,13 +6754,13 @@
         <v>63931</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,13 +6775,13 @@
         <v>2678</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>313</v>
+        <v>399</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6802,13 +6790,13 @@
         <v>4542</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>396</v>
+        <v>168</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -6817,13 +6805,13 @@
         <v>7220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>98</v>
+        <v>374</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>171</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,13 +6826,13 @@
         <v>3177</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>349</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6859,7 +6847,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -6868,19 +6856,19 @@
         <v>3177</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -6895,7 +6883,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6904,13 +6892,13 @@
         <v>1376</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -6919,19 +6907,19 @@
         <v>1376</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -6946,7 +6934,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6961,7 +6949,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6976,7 +6964,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,13 +6979,13 @@
         <v>546886</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H27" s="7">
         <v>526</v>
@@ -7006,13 +6994,13 @@
         <v>549140</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M27" s="7">
         <v>1027</v>
@@ -7021,13 +7009,13 @@
         <v>1096026</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,7 +7038,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7065,7 +7053,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7080,7 +7068,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7083,13 @@
         <v>2789155</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>146</v>
+        <v>405</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H29" s="7">
         <v>2672</v>
@@ -7110,13 +7098,13 @@
         <v>2755595</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M29" s="7">
         <v>5263</v>
@@ -7125,13 +7113,13 @@
         <v>5544750</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7134,13 @@
         <v>487834</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="H30" s="7">
         <v>461</v>
@@ -7161,13 +7149,13 @@
         <v>536296</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M30" s="7">
         <v>975</v>
@@ -7176,13 +7164,13 @@
         <v>1024130</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7185,13 @@
         <v>30531</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>250</v>
+        <v>423</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H31" s="7">
         <v>60</v>
@@ -7212,13 +7200,13 @@
         <v>71460</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M31" s="7">
         <v>93</v>
@@ -7227,13 +7215,13 @@
         <v>101991</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>276</v>
+        <v>428</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7251,10 +7239,10 @@
         <v>167</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>423</v>
+        <v>245</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="H32" s="7">
         <v>101</v>
@@ -7263,13 +7251,13 @@
         <v>127879</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>425</v>
+        <v>202</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="M32" s="7">
         <v>151</v>
@@ -7278,19 +7266,19 @@
         <v>174418</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7">
         <v>24</v>
@@ -7299,13 +7287,13 @@
         <v>20929</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>429</v>
+        <v>162</v>
       </c>
       <c r="H33" s="7">
         <v>25</v>
@@ -7314,13 +7302,13 @@
         <v>31517</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="M33" s="7">
         <v>49</v>
@@ -7329,19 +7317,19 @@
         <v>52446</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>432</v>
+        <v>68</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>433</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
@@ -7353,10 +7341,10 @@
         <v>15</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>436</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -7365,13 +7353,13 @@
         <v>9353</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -7380,13 +7368,13 @@
         <v>11983</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7401,13 +7389,13 @@
         <v>3377618</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H35" s="7">
         <v>3326</v>
@@ -7416,13 +7404,13 @@
         <v>3532100</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M35" s="7">
         <v>6541</v>
@@ -7431,18 +7419,18 @@
         <v>6909718</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -7461,7 +7449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28096946-1260-4FDF-9975-B62B14CE94E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E4368E-6395-4892-8BA2-E19BE06D91BB}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7478,7 +7466,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7591,7 +7579,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>435</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7606,7 +7594,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7621,7 +7609,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7624,13 @@
         <v>256183</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H5" s="7">
         <v>418</v>
@@ -7651,13 +7639,13 @@
         <v>286765</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M5" s="7">
         <v>684</v>
@@ -7666,13 +7654,13 @@
         <v>542948</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7675,13 @@
         <v>197484</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H6" s="7">
         <v>539</v>
@@ -7702,13 +7690,13 @@
         <v>287390</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M6" s="7">
         <v>826</v>
@@ -7717,13 +7705,13 @@
         <v>484873</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7726,13 @@
         <v>28971</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>456</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H7" s="7">
         <v>166</v>
@@ -7753,13 +7741,13 @@
         <v>93413</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>293</v>
+        <v>461</v>
       </c>
       <c r="M7" s="7">
         <v>212</v>
@@ -7768,13 +7756,13 @@
         <v>122383</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>459</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,13 +7777,13 @@
         <v>44436</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H8" s="7">
         <v>204</v>
@@ -7804,13 +7792,13 @@
         <v>108428</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>467</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M8" s="7">
         <v>272</v>
@@ -7819,19 +7807,19 @@
         <v>152863</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>21</v>
@@ -7840,13 +7828,13 @@
         <v>13343</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -7855,13 +7843,13 @@
         <v>53539</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M9" s="7">
         <v>108</v>
@@ -7870,19 +7858,19 @@
         <v>66882</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="7">
         <v>3</v>
@@ -7891,13 +7879,13 @@
         <v>1217</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -7906,13 +7894,13 @@
         <v>6419</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>102</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -7921,13 +7909,13 @@
         <v>7636</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>478</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,13 +7930,13 @@
         <v>541634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>1427</v>
@@ -7957,13 +7945,13 @@
         <v>835953</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>2118</v>
@@ -7972,18 +7960,18 @@
         <v>1377586</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7995,13 +7983,13 @@
         <v>833</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8016,7 +8004,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -8025,13 +8013,13 @@
         <v>833</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8046,13 +8034,13 @@
         <v>1866623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H13" s="7">
         <v>2393</v>
@@ -8061,13 +8049,13 @@
         <v>1863475</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M13" s="7">
         <v>3958</v>
@@ -8076,13 +8064,13 @@
         <v>3730098</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,13 +8085,13 @@
         <v>245354</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H14" s="7">
         <v>404</v>
@@ -8112,13 +8100,13 @@
         <v>320916</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M14" s="7">
         <v>757</v>
@@ -8127,13 +8115,13 @@
         <v>566270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8136,13 @@
         <v>22840</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>181</v>
+        <v>500</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H15" s="7">
         <v>55</v>
@@ -8163,13 +8151,13 @@
         <v>30418</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>163</v>
+        <v>503</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
@@ -8178,13 +8166,13 @@
         <v>53258</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>501</v>
+        <v>375</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,13 +8187,13 @@
         <v>19455</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>372</v>
+        <v>506</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -8214,13 +8202,13 @@
         <v>25284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>420</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -8229,19 +8217,19 @@
         <v>44738</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="7">
         <v>9</v>
@@ -8250,13 +8238,13 @@
         <v>6917</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -8265,13 +8253,13 @@
         <v>8956</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -8280,19 +8268,19 @@
         <v>15873</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -8307,7 +8295,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -8316,13 +8304,13 @@
         <v>473</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -8331,13 +8319,13 @@
         <v>473</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,13 +8340,13 @@
         <v>2162022</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7">
         <v>2921</v>
@@ -8367,13 +8355,13 @@
         <v>2249521</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
         <v>4913</v>
@@ -8382,18 +8370,18 @@
         <v>4411543</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8411,7 +8399,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>248</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -8420,13 +8408,13 @@
         <v>435</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -8435,13 +8423,13 @@
         <v>435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8456,13 +8444,13 @@
         <v>561053</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H21" s="7">
         <v>851</v>
@@ -8471,13 +8459,13 @@
         <v>635206</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M21" s="7">
         <v>1364</v>
@@ -8486,13 +8474,13 @@
         <v>1196260</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8507,13 +8495,13 @@
         <v>98075</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H22" s="7">
         <v>127</v>
@@ -8522,13 +8510,13 @@
         <v>65212</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M22" s="7">
         <v>275</v>
@@ -8537,13 +8525,13 @@
         <v>163288</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>524</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8558,13 +8546,13 @@
         <v>7633</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>372</v>
+        <v>506</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>44</v>
+        <v>529</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -8573,13 +8561,13 @@
         <v>7297</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>503</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>526</v>
+        <v>94</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -8588,13 +8576,13 @@
         <v>14930</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>174</v>
+        <v>530</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>314</v>
+        <v>531</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8609,13 +8597,13 @@
         <v>6118</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>528</v>
+        <v>345</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -8624,13 +8612,13 @@
         <v>5736</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>529</v>
+        <v>273</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -8639,19 +8627,19 @@
         <v>11854</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>530</v>
+        <v>380</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>531</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -8660,13 +8648,13 @@
         <v>159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8681,7 +8669,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -8690,19 +8678,19 @@
         <v>159</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -8717,7 +8705,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>435</v>
+        <v>248</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8732,7 +8720,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8747,7 +8735,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8762,13 +8750,13 @@
         <v>673039</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H27" s="7">
         <v>1004</v>
@@ -8777,13 +8765,13 @@
         <v>713886</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M27" s="7">
         <v>1685</v>
@@ -8792,13 +8780,13 @@
         <v>1386926</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8815,13 +8803,13 @@
         <v>833</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -8830,13 +8818,13 @@
         <v>435</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -8845,13 +8833,13 @@
         <v>1268</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8866,13 +8854,13 @@
         <v>2683858</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H29" s="7">
         <v>3662</v>
@@ -8881,13 +8869,13 @@
         <v>2785447</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M29" s="7">
         <v>6006</v>
@@ -8896,13 +8884,13 @@
         <v>5469305</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8917,13 +8905,13 @@
         <v>540913</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H30" s="7">
         <v>1070</v>
@@ -8932,13 +8920,13 @@
         <v>673518</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M30" s="7">
         <v>1858</v>
@@ -8947,13 +8935,13 @@
         <v>1214431</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8968,10 +8956,10 @@
         <v>59444</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>550</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>551</v>
@@ -8986,10 +8974,10 @@
         <v>552</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="M31" s="7">
         <v>328</v>
@@ -8998,13 +8986,13 @@
         <v>190572</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>556</v>
+        <v>168</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>553</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9019,13 +9007,13 @@
         <v>70008</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>396</v>
+        <v>44</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>397</v>
+        <v>57</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H32" s="7">
         <v>265</v>
@@ -9034,13 +9022,13 @@
         <v>139447</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>558</v>
+        <v>344</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>350</v>
+        <v>557</v>
       </c>
       <c r="M32" s="7">
         <v>370</v>
@@ -9049,19 +9037,19 @@
         <v>209456</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>560</v>
+        <v>433</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>91</v>
+        <v>558</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7">
         <v>31</v>
@@ -9070,13 +9058,13 @@
         <v>20419</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>526</v>
+        <v>94</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>562</v>
+        <v>402</v>
       </c>
       <c r="H33" s="7">
         <v>104</v>
@@ -9085,13 +9073,13 @@
         <v>62495</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M33" s="7">
         <v>135</v>
@@ -9100,19 +9088,19 @@
         <v>82914</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>565</v>
+        <v>157</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>311</v>
+        <v>371</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
@@ -9121,13 +9109,13 @@
         <v>1217</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>14</v>
@@ -9139,10 +9127,10 @@
         <v>13</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M34" s="7">
         <v>17</v>
@@ -9151,10 +9139,10 @@
         <v>8109</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>13</v>
@@ -9172,13 +9160,13 @@
         <v>3376694</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H35" s="7">
         <v>5352</v>
@@ -9187,13 +9175,13 @@
         <v>3799360</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M35" s="7">
         <v>8716</v>
@@ -9202,18 +9190,18 @@
         <v>7176054</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/barthel_r-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/barthel_r-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7593952-46CF-48DE-8178-8B0C7D3CD096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1D7DD04-AC70-4600-B1B0-CCD3D3DFAB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{794506FE-B68B-4D78-998D-09C6364FD17E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5174042C-0818-4FF2-9048-674E2D7DE178}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="562">
-  <si>
-    <t>Barthel recodificado en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="560">
+  <si>
+    <t>Población según los resultados de la escala de dependencia funcional para actividades básicas de la vida diaria (Barthel) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -95,28 +95,28 @@
     <t>63,83%</t>
   </si>
   <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
   </si>
   <si>
     <t>55,31%</t>
   </si>
   <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
   </si>
   <si>
     <t>59,05%</t>
   </si>
   <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
   </si>
   <si>
     <t>100 independencia</t>
@@ -125,28 +125,28 @@
     <t>30,75%</t>
   </si>
   <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
   </si>
   <si>
     <t>35,13%</t>
   </si>
   <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
   </si>
   <si>
     <t>91-99 dependencia escasa</t>
@@ -155,1576 +155,1570 @@
     <t>1,93%</t>
   </si>
   <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>61-90 dependencia moderada</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>21-60 dependencia severa</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0-20 dependencia total</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según los resultados de la escala de dependencia funcional para actividades básicas de la vida diaria (Barthel) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>Población según los resultados de la escala de dependencia funcional para actividades básicas de la vida diaria (Barthel) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>Población según los resultados de la escala de dependencia funcional para actividades básicas de la vida diaria (Barthel) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>61-90 dependencia moderada</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>21-60 dependencia severa</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0-20 dependencia total</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>Barthel recodificado en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857DCA86-351E-400A-945A-DDF1A4682F8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0690B8A0-B394-4C4A-B678-F6A4D5A0A201}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2464,13 +2458,13 @@
         <v>24907</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H8" s="7">
         <v>48</v>
@@ -2482,10 +2476,10 @@
         <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -2494,13 +2488,13 @@
         <v>78439</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,10 +2527,10 @@
         <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -2545,19 +2539,19 @@
         <v>35787</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -2572,7 +2566,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2581,13 +2575,13 @@
         <v>3222</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2596,13 +2590,13 @@
         <v>4060</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,7 +2712,7 @@
         <v>1560</v>
       </c>
       <c r="D13" s="7">
-        <v>1605330</v>
+        <v>1605329</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>75</v>
@@ -2787,13 +2781,13 @@
         <v>54319</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>134</v>
@@ -2802,13 +2796,13 @@
         <v>135399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2817,13 @@
         <v>4556</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2844,7 +2838,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -2853,13 +2847,13 @@
         <v>7000</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,13 +2868,13 @@
         <v>1637</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2889,13 +2883,13 @@
         <v>3394</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2910,7 +2904,7 @@
         <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2919,13 @@
         <v>810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2946,7 +2940,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2955,19 +2949,19 @@
         <v>1723</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2991,13 +2985,13 @@
         <v>1141</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -3006,13 +3000,13 @@
         <v>1141</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,7 +3018,7 @@
         <v>1649</v>
       </c>
       <c r="D19" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>71</v>
@@ -3068,7 +3062,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3086,7 +3080,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3152,7 +3146,7 @@
         <v>113</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="M21" s="7">
         <v>917</v>
@@ -3161,13 +3155,13 @@
         <v>959745</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3176,13 @@
         <v>37126</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -3197,13 +3191,13 @@
         <v>22657</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -3212,13 +3206,13 @@
         <v>59783</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3227,13 @@
         <v>2614</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3266,10 +3260,10 @@
         <v>129</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3278,13 @@
         <v>1454</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3299,13 +3293,13 @@
         <v>3361</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -3314,13 +3308,13 @@
         <v>4815</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>73</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,7 +3335,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3377,7 +3371,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -3392,7 +3386,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3526,7 +3520,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,16 +3532,16 @@
         <v>2691</v>
       </c>
       <c r="D29" s="7">
-        <v>2774077</v>
+        <v>2774078</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>2636</v>
@@ -3556,28 +3550,28 @@
         <v>2702356</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M29" s="7">
         <v>5327</v>
       </c>
       <c r="N29" s="7">
-        <v>5476433</v>
+        <v>5476432</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3586,13 @@
         <v>435452</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H30" s="7">
         <v>534</v>
@@ -3607,13 +3601,13 @@
         <v>538939</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M30" s="7">
         <v>985</v>
@@ -3622,13 +3616,13 @@
         <v>974391</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3637,13 @@
         <v>27113</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H31" s="7">
         <v>44</v>
@@ -3658,13 +3652,13 @@
         <v>46808</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M31" s="7">
         <v>73</v>
@@ -3673,13 +3667,13 @@
         <v>73922</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3688,13 @@
         <v>27999</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H32" s="7">
         <v>54</v>
@@ -3709,13 +3703,13 @@
         <v>60285</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M32" s="7">
         <v>84</v>
@@ -3724,10 +3718,10 @@
         <v>88284</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>170</v>
@@ -3748,10 +3742,10 @@
         <v>129</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
@@ -3760,13 +3754,13 @@
         <v>26446</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M33" s="7">
         <v>36</v>
@@ -3775,19 +3769,19 @@
         <v>37510</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
@@ -3796,13 +3790,13 @@
         <v>838</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -3811,13 +3805,13 @@
         <v>4363</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -3829,10 +3823,10 @@
         <v>15</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,7 +3838,7 @@
         <v>3214</v>
       </c>
       <c r="D35" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>71</v>
@@ -3874,7 +3868,7 @@
         <v>6511</v>
       </c>
       <c r="N35" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>71</v>
@@ -3888,7 +3882,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3907,7 +3901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4A0019-9F1B-4C2D-B121-61E8A40B8D36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A920B84-9627-415C-B3B2-481FC0AA0BE8}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3924,7 +3918,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4037,7 +4031,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4067,7 +4061,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4076,13 @@
         <v>560245</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>651</v>
@@ -4115,10 +4109,10 @@
         <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4127,13 @@
         <v>324318</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H6" s="7">
         <v>402</v>
@@ -4148,13 +4142,13 @@
         <v>423990</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M6" s="7">
         <v>703</v>
@@ -4163,13 +4157,13 @@
         <v>748309</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4178,13 @@
         <v>15633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -4199,13 +4193,13 @@
         <v>37307</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -4214,13 +4208,13 @@
         <v>52940</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4229,13 @@
         <v>51010</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H8" s="7">
         <v>110</v>
@@ -4250,13 +4244,13 @@
         <v>120306</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>153</v>
@@ -4265,13 +4259,13 @@
         <v>171316</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4280,13 @@
         <v>18283</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H9" s="7">
         <v>37</v>
@@ -4301,13 +4295,13 @@
         <v>40143</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M9" s="7">
         <v>52</v>
@@ -4316,19 +4310,19 @@
         <v>58426</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="7">
         <v>5</v>
@@ -4337,13 +4331,13 @@
         <v>5153</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -4352,13 +4346,13 @@
         <v>12798</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4367,13 +4361,13 @@
         <v>17952</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,7 +4441,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4492,13 +4486,13 @@
         <v>1845292</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>1558</v>
@@ -4507,13 +4501,13 @@
         <v>1674729</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>3309</v>
@@ -4522,13 +4516,13 @@
         <v>3520021</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4537,13 @@
         <v>105385</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -4558,13 +4552,13 @@
         <v>66772</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>154</v>
@@ -4573,13 +4567,13 @@
         <v>172158</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4588,13 @@
         <v>5176</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -4612,10 +4606,10 @@
         <v>108</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -4624,13 +4618,13 @@
         <v>8700</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4639,13 @@
         <v>4970</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4660,13 +4654,13 @@
         <v>10354</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4675,13 +4669,13 @@
         <v>15324</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4690,13 @@
         <v>2141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4717,7 +4711,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4726,19 +4720,19 @@
         <v>3237</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -4747,13 +4741,13 @@
         <v>992</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -4768,7 +4762,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -4839,7 +4833,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4857,7 +4851,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4872,7 +4866,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4887,7 +4881,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,13 +4896,13 @@
         <v>454606</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H21" s="7">
         <v>394</v>
@@ -4917,13 +4911,13 @@
         <v>436385</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M21" s="7">
         <v>811</v>
@@ -4932,13 +4926,13 @@
         <v>890991</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>256</v>
+        <v>116</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4947,13 @@
         <v>24546</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4968,13 +4962,13 @@
         <v>17823</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -4983,13 +4977,13 @@
         <v>42369</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +4998,13 @@
         <v>1043</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5019,13 +5013,13 @@
         <v>1109</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5034,13 +5028,13 @@
         <v>2151</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,7 +5055,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -5070,13 +5064,13 @@
         <v>2215</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>272</v>
+        <v>134</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5085,13 +5079,13 @@
         <v>2215</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,7 +5106,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>62</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5121,13 +5115,13 @@
         <v>1100</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5136,19 +5130,19 @@
         <v>2085</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>68</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -5163,7 +5157,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5178,7 +5172,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5193,7 +5187,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,7 +5291,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5306,13 @@
         <v>2860145</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H29" s="7">
         <v>2603</v>
@@ -5327,13 +5321,13 @@
         <v>2814365</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M29" s="7">
         <v>5301</v>
@@ -5342,13 +5336,13 @@
         <v>5674510</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5357,13 @@
         <v>454250</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H30" s="7">
         <v>478</v>
@@ -5378,13 +5372,13 @@
         <v>508585</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M30" s="7">
         <v>890</v>
@@ -5393,13 +5387,13 @@
         <v>962835</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>291</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5408,13 @@
         <v>21852</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>293</v>
+        <v>174</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H31" s="7">
         <v>40</v>
@@ -5429,13 +5423,13 @@
         <v>41940</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>296</v>
+        <v>170</v>
       </c>
       <c r="M31" s="7">
         <v>60</v>
@@ -5444,13 +5438,13 @@
         <v>63792</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,10 +5459,10 @@
         <v>55980</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>299</v>
@@ -5501,7 +5495,7 @@
         <v>304</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5510,13 @@
         <v>21410</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="H33" s="7">
         <v>39</v>
@@ -5531,13 +5525,13 @@
         <v>42338</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>305</v>
+        <v>155</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="M33" s="7">
         <v>57</v>
@@ -5546,19 +5540,19 @@
         <v>63748</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>306</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="7">
         <v>6</v>
@@ -5573,7 +5567,7 @@
         <v>74</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>293</v>
+        <v>101</v>
       </c>
       <c r="H34" s="7">
         <v>12</v>
@@ -5582,13 +5576,13 @@
         <v>14127</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>268</v>
+        <v>97</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M34" s="7">
         <v>18</v>
@@ -5600,10 +5594,10 @@
         <v>102</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,7 +5653,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5678,7 +5672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6919C48F-E2B4-4610-B445-D2ECE2C013D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA53467D-C381-45B2-A145-8EF17D4F2C5A}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5695,7 +5689,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5808,7 +5802,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5823,7 +5817,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5853,13 +5847,13 @@
         <v>400445</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
         <v>421</v>
@@ -5868,13 +5862,13 @@
         <v>439903</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>797</v>
@@ -5883,13 +5877,13 @@
         <v>840349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5898,13 @@
         <v>277404</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H6" s="7">
         <v>318</v>
@@ -5919,13 +5913,13 @@
         <v>365129</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M6" s="7">
         <v>619</v>
@@ -5934,13 +5928,13 @@
         <v>642532</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5949,13 @@
         <v>20216</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>327</v>
+        <v>52</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -5973,10 +5967,10 @@
         <v>84</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -5985,13 +5979,13 @@
         <v>67908</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,13 +6000,13 @@
         <v>36449</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>83</v>
@@ -6021,13 +6015,13 @@
         <v>104641</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>122</v>
@@ -6036,13 +6030,13 @@
         <v>141090</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,13 +6051,13 @@
         <v>19008</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -6072,13 +6066,13 @@
         <v>27942</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>343</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -6087,19 +6081,19 @@
         <v>46949</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>327</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -6108,13 +6102,13 @@
         <v>826</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -6123,13 +6117,13 @@
         <v>9353</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -6138,13 +6132,13 @@
         <v>10179</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,7 +6212,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6233,7 +6227,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6248,7 +6242,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,10 +6362,10 @@
         <v>368</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>369</v>
+        <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>370</v>
+        <v>274</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -6380,13 +6374,13 @@
         <v>19226</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>372</v>
+        <v>171</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>373</v>
+        <v>170</v>
       </c>
       <c r="M15" s="7">
         <v>23</v>
@@ -6395,13 +6389,13 @@
         <v>26862</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,13 +6410,13 @@
         <v>6914</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -6431,13 +6425,13 @@
         <v>23238</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>378</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -6446,13 +6440,13 @@
         <v>30152</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>380</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,13 +6461,13 @@
         <v>1921</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6482,13 +6476,13 @@
         <v>2200</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -6497,19 +6491,19 @@
         <v>4121</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>132</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
@@ -6518,13 +6512,13 @@
         <v>1804</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6539,7 +6533,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -6548,13 +6542,13 @@
         <v>1804</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>369</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,7 +6604,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6628,7 +6622,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6643,7 +6637,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6658,7 +6652,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6667,13 @@
         <v>504857</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H21" s="7">
         <v>500</v>
@@ -6688,13 +6682,13 @@
         <v>515466</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M21" s="7">
         <v>960</v>
@@ -6703,13 +6697,13 @@
         <v>1020323</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>230</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6718,13 @@
         <v>36174</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -6739,13 +6733,13 @@
         <v>27757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -6754,13 +6748,13 @@
         <v>63931</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,13 +6769,13 @@
         <v>2678</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6790,13 +6784,13 @@
         <v>4542</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -6805,13 +6799,13 @@
         <v>7220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>244</v>
+        <v>376</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,13 +6820,13 @@
         <v>3177</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>349</v>
+        <v>244</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>175</v>
+        <v>397</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6847,7 +6841,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -6859,10 +6853,10 @@
         <v>102</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>402</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,7 +6877,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6892,13 +6886,13 @@
         <v>1376</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -6907,19 +6901,19 @@
         <v>1376</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -6934,7 +6928,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6949,7 +6943,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6964,7 +6958,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,7 +7062,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,13 +7077,13 @@
         <v>2789155</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H29" s="7">
         <v>2672</v>
@@ -7098,13 +7092,13 @@
         <v>2755595</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M29" s="7">
         <v>5263</v>
@@ -7113,13 +7107,13 @@
         <v>5544750</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,13 +7128,13 @@
         <v>487834</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H30" s="7">
         <v>461</v>
@@ -7149,13 +7143,13 @@
         <v>536296</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="M30" s="7">
         <v>975</v>
@@ -7164,13 +7158,13 @@
         <v>1024130</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,13 +7179,13 @@
         <v>30531</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H31" s="7">
         <v>60</v>
@@ -7200,13 +7194,13 @@
         <v>71460</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M31" s="7">
         <v>93</v>
@@ -7215,13 +7209,13 @@
         <v>101991</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7230,13 @@
         <v>46539</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>167</v>
+        <v>273</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>245</v>
+        <v>423</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H32" s="7">
         <v>101</v>
@@ -7251,13 +7245,13 @@
         <v>127879</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>202</v>
+        <v>425</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M32" s="7">
         <v>151</v>
@@ -7266,13 +7260,13 @@
         <v>174418</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,13 +7281,13 @@
         <v>20929</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>65</v>
+        <v>253</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>162</v>
+        <v>417</v>
       </c>
       <c r="H33" s="7">
         <v>25</v>
@@ -7302,13 +7296,13 @@
         <v>31517</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>434</v>
+        <v>160</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M33" s="7">
         <v>49</v>
@@ -7317,19 +7311,19 @@
         <v>52446</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>68</v>
+        <v>430</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
@@ -7341,10 +7335,10 @@
         <v>15</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -7353,13 +7347,13 @@
         <v>9353</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -7368,13 +7362,13 @@
         <v>11983</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>129</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,7 +7424,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -7449,7 +7443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E4368E-6395-4892-8BA2-E19BE06D91BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17729BD-DD09-4CF0-BF02-A9F23497DA12}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7466,7 +7460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7579,7 +7573,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>376</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7594,7 +7588,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7609,7 +7603,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,13 +7618,13 @@
         <v>256183</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H5" s="7">
         <v>418</v>
@@ -7639,13 +7633,13 @@
         <v>286765</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M5" s="7">
         <v>684</v>
@@ -7654,13 +7648,13 @@
         <v>542948</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,13 +7669,13 @@
         <v>197484</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H6" s="7">
         <v>539</v>
@@ -7690,13 +7684,13 @@
         <v>287390</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M6" s="7">
         <v>826</v>
@@ -7705,13 +7699,13 @@
         <v>484873</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7720,13 @@
         <v>28971</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H7" s="7">
         <v>166</v>
@@ -7741,13 +7735,13 @@
         <v>93413</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M7" s="7">
         <v>212</v>
@@ -7756,13 +7750,13 @@
         <v>122383</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>126</v>
+        <v>459</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7777,13 +7771,13 @@
         <v>44436</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H8" s="7">
         <v>204</v>
@@ -7792,13 +7786,13 @@
         <v>108428</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M8" s="7">
         <v>272</v>
@@ -7807,13 +7801,13 @@
         <v>152863</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7828,13 +7822,13 @@
         <v>13343</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -7843,13 +7837,13 @@
         <v>53539</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>476</v>
+        <v>213</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M9" s="7">
         <v>108</v>
@@ -7858,19 +7852,19 @@
         <v>66882</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="7">
         <v>3</v>
@@ -7879,13 +7873,13 @@
         <v>1217</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>376</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -7894,13 +7888,13 @@
         <v>6419</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>429</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -7909,13 +7903,13 @@
         <v>7636</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>478</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>422</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7983,13 +7977,13 @@
         <v>833</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8004,7 +7998,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -8013,13 +8007,13 @@
         <v>833</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8034,13 +8028,13 @@
         <v>1866623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H13" s="7">
         <v>2393</v>
@@ -8049,13 +8043,13 @@
         <v>1863475</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M13" s="7">
         <v>3958</v>
@@ -8064,13 +8058,13 @@
         <v>3730098</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8085,28 +8079,28 @@
         <v>245354</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H14" s="7">
         <v>404</v>
       </c>
       <c r="I14" s="7">
-        <v>320916</v>
+        <v>320915</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>495</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="M14" s="7">
         <v>757</v>
@@ -8115,13 +8109,13 @@
         <v>566270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8130,13 @@
         <v>22840</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>159</v>
+        <v>495</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>500</v>
+        <v>399</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>501</v>
+        <v>132</v>
       </c>
       <c r="H15" s="7">
         <v>55</v>
@@ -8151,13 +8145,13 @@
         <v>30418</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>503</v>
+        <v>371</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
@@ -8166,13 +8160,13 @@
         <v>53258</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>498</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8187,13 +8181,13 @@
         <v>19455</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>506</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -8202,13 +8196,13 @@
         <v>25284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>349</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>502</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -8217,13 +8211,13 @@
         <v>44738</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>423</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>270</v>
+        <v>503</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>508</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,13 +8232,13 @@
         <v>6917</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -8253,13 +8247,13 @@
         <v>8956</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -8268,19 +8262,19 @@
         <v>15873</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>56</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -8295,7 +8289,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -8304,13 +8298,13 @@
         <v>473</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -8319,13 +8313,13 @@
         <v>473</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,7 +8346,7 @@
         <v>2921</v>
       </c>
       <c r="I19" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>71</v>
@@ -8381,7 +8375,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8399,7 +8393,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>248</v>
+        <v>376</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -8414,7 +8408,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>176</v>
+        <v>376</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -8423,13 +8417,13 @@
         <v>435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>510</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8444,13 +8438,13 @@
         <v>561053</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>513</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7">
         <v>851</v>
@@ -8459,13 +8453,13 @@
         <v>635206</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="M21" s="7">
         <v>1364</v>
@@ -8474,13 +8468,13 @@
         <v>1196260</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8495,13 +8489,13 @@
         <v>98075</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="H22" s="7">
         <v>127</v>
@@ -8510,13 +8504,13 @@
         <v>65212</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="M22" s="7">
         <v>275</v>
@@ -8525,13 +8519,13 @@
         <v>163288</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8546,13 +8540,13 @@
         <v>7633</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>506</v>
+        <v>249</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>529</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -8561,13 +8555,13 @@
         <v>7297</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>503</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>94</v>
+        <v>478</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>399</v>
+        <v>204</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -8576,13 +8570,13 @@
         <v>14930</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>530</v>
+        <v>374</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>532</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8597,13 +8591,13 @@
         <v>6118</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>345</v>
+        <v>523</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -8612,13 +8606,13 @@
         <v>5736</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>273</v>
+        <v>501</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -8627,13 +8621,13 @@
         <v>11854</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>380</v>
+        <v>525</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8648,13 +8642,13 @@
         <v>159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>510</v>
+        <v>397</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8669,7 +8663,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -8678,7 +8672,7 @@
         <v>159</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
@@ -8690,7 +8684,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -8705,7 +8699,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>248</v>
+        <v>376</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8720,7 +8714,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8735,7 +8729,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8803,13 +8797,13 @@
         <v>833</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -8818,13 +8812,13 @@
         <v>435</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -8833,13 +8827,13 @@
         <v>1268</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8851,16 +8845,16 @@
         <v>2344</v>
       </c>
       <c r="D29" s="7">
-        <v>2683858</v>
+        <v>2683859</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H29" s="7">
         <v>3662</v>
@@ -8869,28 +8863,28 @@
         <v>2785447</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="M29" s="7">
         <v>6006</v>
       </c>
       <c r="N29" s="7">
-        <v>5469305</v>
+        <v>5469306</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8902,16 +8896,16 @@
         <v>788</v>
       </c>
       <c r="D30" s="7">
-        <v>540913</v>
+        <v>540914</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="H30" s="7">
         <v>1070</v>
@@ -8920,13 +8914,13 @@
         <v>673518</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="M30" s="7">
         <v>1858</v>
@@ -8935,13 +8929,13 @@
         <v>1214431</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8956,13 +8950,13 @@
         <v>59444</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>201</v>
+        <v>497</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>400</v>
+        <v>524</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H31" s="7">
         <v>236</v>
@@ -8971,13 +8965,13 @@
         <v>131128</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>50</v>
+        <v>546</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="M31" s="7">
         <v>328</v>
@@ -8986,13 +8980,13 @@
         <v>190572</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>168</v>
+        <v>549</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>50</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9007,13 +9001,13 @@
         <v>70008</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>57</v>
+        <v>550</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>555</v>
+        <v>341</v>
       </c>
       <c r="H32" s="7">
         <v>265</v>
@@ -9022,13 +9016,13 @@
         <v>139447</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>344</v>
+        <v>551</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M32" s="7">
         <v>370</v>
@@ -9037,13 +9031,13 @@
         <v>209456</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>433</v>
+        <v>554</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9058,13 +9052,13 @@
         <v>20419</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>402</v>
+        <v>198</v>
       </c>
       <c r="H33" s="7">
         <v>104</v>
@@ -9073,13 +9067,13 @@
         <v>62495</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M33" s="7">
         <v>135</v>
@@ -9088,19 +9082,19 @@
         <v>82914</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>157</v>
+        <v>559</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>371</v>
+        <v>224</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>158</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
@@ -9109,13 +9103,13 @@
         <v>1217</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H34" s="7">
         <v>14</v>
@@ -9127,10 +9121,10 @@
         <v>13</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="M34" s="7">
         <v>17</v>
@@ -9139,13 +9133,13 @@
         <v>8109</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9157,7 +9151,7 @@
         <v>3364</v>
       </c>
       <c r="D35" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>71</v>
@@ -9187,7 +9181,7 @@
         <v>8716</v>
       </c>
       <c r="N35" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>71</v>
@@ -9201,7 +9195,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
